--- a/project/data/special_events.xlsx
+++ b/project/data/special_events.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FB89B4-92AD-374D-A355-B23BAE2998F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE76ED3-EA3C-934A-A739-C1DA16CFB05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="5160" windowWidth="28040" windowHeight="15860" xr2:uid="{EC4A80AA-F900-2B46-B3FC-512F89B9B055}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="15960" xr2:uid="{EC4A80AA-F900-2B46-B3FC-512F89B9B055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -454,115 +457,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C1D729-4ED6-EC4F-AF58-B106C6722C9A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1961.2767100000001</v>
+      </c>
+      <c r="B2" s="1">
         <v>22383</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1969.5369900000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1970.9534200000001</v>
+      </c>
+      <c r="B4" s="1">
         <v>25917</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1971.9178099999999</v>
+      </c>
+      <c r="B5" s="1">
         <v>26269</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>27961</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1998.8849299999999</v>
+      </c>
+      <c r="B6" s="1">
         <v>36119</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
